--- a/data/trans_orig/P14C19-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C19-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDA933AD-C1D0-4FAE-A886-DFCD1285AFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F72542BB-53DF-4C87-BB9D-3017A492BC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB0207C6-314F-4C74-8253-5D83DEB1AF00}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D433A96-BDEA-4BA1-BB9F-9C09559BD4CB}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="144">
   <si>
     <t>Población según el tiempo de diagnóstico del varices en las piernas en 2015 (Tasa respuesta: 3,43%)</t>
   </si>
@@ -86,7 +86,7 @@
     <t>64,18%</t>
   </si>
   <si>
-    <t>15,32%</t>
+    <t>15,64%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -101,7 +101,7 @@
     <t>35,82%</t>
   </si>
   <si>
-    <t>84,68%</t>
+    <t>84,36%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -125,49 +125,49 @@
     <t>44,53%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
   </si>
   <si>
     <t>85,15%</t>
   </si>
   <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>76,35%</t>
   </si>
   <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
   </si>
   <si>
     <t>32,08%</t>
   </si>
   <si>
-    <t>69,8%</t>
+    <t>85,02%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>28,63%</t>
+    <t>28,46%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
   </si>
   <si>
     <t>23,39%</t>
@@ -179,13 +179,13 @@
     <t>5,28%</t>
   </si>
   <si>
-    <t>28,83%</t>
+    <t>25,81%</t>
   </si>
   <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>27,99%</t>
+    <t>29,24%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,73 +194,73 @@
     <t>52,31%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
   </si>
   <si>
     <t>77,07%</t>
   </si>
   <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>74,5%</t>
   </si>
   <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>34,91%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>22,62%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
   </si>
   <si>
     <t>12,77%</t>
   </si>
   <si>
-    <t>55,65%</t>
+    <t>49,82%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>8,7%</t>
+    <t>9,0%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>9,52%</t>
+    <t>8,89%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -269,43 +269,43 @@
     <t>89,66%</t>
   </si>
   <si>
-    <t>56,43%</t>
+    <t>46,78%</t>
   </si>
   <si>
     <t>93,86%</t>
   </si>
   <si>
-    <t>80,77%</t>
+    <t>81,43%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>43,57%</t>
+    <t>53,22%</t>
   </si>
   <si>
     <t>6,14%</t>
   </si>
   <si>
-    <t>19,23%</t>
+    <t>18,57%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -323,25 +323,25 @@
     <t>96,27%</t>
   </si>
   <si>
-    <t>79,29%</t>
+    <t>83,02%</t>
   </si>
   <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>92,53%</t>
   </si>
   <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -350,10 +350,10 @@
     <t>4,54%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
   </si>
   <si>
     <t>3,53%</t>
@@ -362,19 +362,19 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>9,14%</t>
+    <t>9,6%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>20,71%</t>
+    <t>16,98%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>13,88%</t>
+    <t>12,4%</t>
   </si>
   <si>
     <t>3,94%</t>
@@ -383,85 +383,88 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>11,27%</t>
+    <t>11,05%</t>
   </si>
   <si>
     <t>78,0%</t>
   </si>
   <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
   </si>
   <si>
     <t>85,42%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>7,03%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D46D53-C6BB-4E2B-AE62-89E26C8743BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37FA87C-71BC-4915-8496-87DDE940A064}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2165,10 +2168,10 @@
         <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,7 +2227,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C19-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C19-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F72542BB-53DF-4C87-BB9D-3017A492BC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B72A8A4C-19D1-41ED-8849-0CBDDE355BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D433A96-BDEA-4BA1-BB9F-9C09559BD4CB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{11ACD6D3-D981-4648-BEA5-838FD66FDB7C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="144">
-  <si>
-    <t>Población según el tiempo de diagnóstico del varices en las piernas en 2015 (Tasa respuesta: 3,43%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="143">
+  <si>
+    <t>Población según el tiempo de diagnóstico del varices en las piernas en 2016 (Tasa respuesta: 3,43%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -86,7 +86,7 @@
     <t>64,18%</t>
   </si>
   <si>
-    <t>15,64%</t>
+    <t>15,67%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -101,7 +101,7 @@
     <t>35,82%</t>
   </si>
   <si>
-    <t>84,36%</t>
+    <t>84,33%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -119,334 +119,331 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>44,53%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>85,15%</t>
   </si>
   <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>76,35%</t>
   </si>
   <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>32,08%</t>
   </si>
   <si>
-    <t>85,02%</t>
+    <t>77,38%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>28,46%</t>
+    <t>28,82%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
   </si>
   <si>
     <t>23,39%</t>
   </si>
   <si>
-    <t>75,96%</t>
+    <t>75,09%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>25,81%</t>
+    <t>21,79%</t>
   </si>
   <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>52,31%</t>
   </si>
   <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>77,07%</t>
   </si>
   <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
   </si>
   <si>
     <t>74,5%</t>
   </si>
   <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
     <t>63,6%</t>
   </si>
   <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>89,03%</t>
   </si>
   <si>
     <t>85,42%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>2,62%</t>
@@ -455,16 +452,16 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>6,04%</t>
+    <t>6,09%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -879,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37FA87C-71BC-4915-8496-87DDE940A064}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28B1159-A388-4008-BA2B-EDF0B7C9A473}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1499,10 +1496,10 @@
         <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1517,13 +1514,13 @@
         <v>1143</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1532,13 +1529,13 @@
         <v>1342</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1547,13 +1544,13 @@
         <v>2485</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,7 +1606,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1621,10 +1618,10 @@
         <v>7719</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1636,10 +1633,10 @@
         <v>30768</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -1651,13 +1648,13 @@
         <v>38487</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1672,13 +1669,13 @@
         <v>890</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1687,13 +1684,13 @@
         <v>2012</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1702,13 +1699,13 @@
         <v>2902</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1729,7 +1726,7 @@
         <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1744,7 +1741,7 @@
         <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1759,7 +1756,7 @@
         <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,7 +1812,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1827,10 +1824,10 @@
         <v>20193</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -1842,13 +1839,13 @@
         <v>67094</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>75</v>
@@ -1857,13 +1854,13 @@
         <v>87287</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,7 +1881,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -1893,13 +1890,13 @@
         <v>3329</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -1908,13 +1905,13 @@
         <v>3329</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,13 +1926,13 @@
         <v>783</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -1944,13 +1941,13 @@
         <v>2936</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -1959,13 +1956,13 @@
         <v>3720</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,13 +2030,13 @@
         <v>37539</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H24" s="7">
         <v>152</v>
@@ -2048,13 +2045,13 @@
         <v>178778</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>188</v>
@@ -2063,13 +2060,13 @@
         <v>216316</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,13 +2081,13 @@
         <v>7185</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -2099,13 +2096,13 @@
         <v>25033</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -2114,13 +2111,13 @@
         <v>32218</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2132,13 @@
         <v>3403</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2150,13 +2147,13 @@
         <v>5483</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2165,13 +2162,13 @@
         <v>8886</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,7 +2224,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
